--- a/PendingChangesLog.xlsx
+++ b/PendingChangesLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastianhollow\Documents\GitHub\Smoking-Regulator-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E921E7-70C9-46FA-9E28-66D76FBD4155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC13EE4-4D61-4A78-AD2D-6158851F6AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECFB5990-7823-41B8-9284-816CFB056E09}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Disable the left arrow of the callendar when it hits the first date</t>
   </si>
   <si>
-    <t>Export data to cvs: using the first date as a bound export its dates data, if those exist</t>
-  </si>
-  <si>
     <t>On the first start of the app save the date, (check if "First Date" string exists on saved prefs and if it doesn’t save it)</t>
   </si>
   <si>
@@ -115,13 +112,16 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>Export data to csv: using the first date as a bound export its dates data, if those exist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Manrope"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Manrope Medium"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Manrope Bold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,32 +256,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
@@ -327,203 +371,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF4B084"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFA9D08E"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -845,138 +692,138 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF379AD-2468-4CE4-97FF-EEE4C0856CA3}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="50.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>44872</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="F2" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>44872</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>44872</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>44872</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>44872</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>44872</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>44872</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>44872</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1063,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1074,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1085,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1096,7 +943,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
